--- a/ocl20forEclipse/experimental/org.dresdenocl.examples.uml/stats/wfr_stat.xlsx
+++ b/ocl20forEclipse/experimental/org.dresdenocl.examples.uml/stats/wfr_stat.xlsx
@@ -543,12 +543,71 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.332947876100325"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.17485962269156788"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8614694439790772E-7"/>
+                  <c:y val="-0.20813591441863991"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.5147483820840091E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.24124960914181756"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$B$2:$B$8</c:f>
@@ -610,24 +669,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="90719360"/>
-        <c:axId val="90721280"/>
+        <c:axId val="54222208"/>
+        <c:axId val="54236288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90719360"/>
+        <c:axId val="54222208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90721280"/>
+        <c:crossAx val="54236288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90721280"/>
+        <c:axId val="54236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +694,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90719360"/>
+        <c:crossAx val="54222208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -644,8 +703,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -835,24 +894,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="80840960"/>
-        <c:axId val="80842752"/>
+        <c:axId val="54253440"/>
+        <c:axId val="54254976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80840960"/>
+        <c:axId val="54253440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80842752"/>
+        <c:crossAx val="54254976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80842752"/>
+        <c:axId val="54254976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +919,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80840960"/>
+        <c:crossAx val="54253440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,6 +930,190 @@
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.34574831575655929"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$I$34:$I$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Parsable OCL rules</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Syntactical Errors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minor inconsistencies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Type checking errors</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OCL Evolution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$34:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="74110848"/>
+        <c:axId val="74112384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74110848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74112384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74112384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74110848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -932,6 +1175,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1225,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1645,6 +1918,66 @@
       <c r="D29" s="10">
         <f>SUM(D10:D28)</f>
         <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" t="str">
+        <f>B5</f>
+        <v>Parsable OCL rules</v>
+      </c>
+      <c r="J34">
+        <f>C5</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" t="str">
+        <f>B10</f>
+        <v>Syntactical Errors</v>
+      </c>
+      <c r="J35">
+        <f>D10</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" t="str">
+        <f>B17</f>
+        <v>Minor inconsistencies</v>
+      </c>
+      <c r="J36">
+        <f>D17</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" t="str">
+        <f>B20</f>
+        <v>Type checking errors</v>
+      </c>
+      <c r="J37">
+        <f>D20</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" t="str">
+        <f>B25</f>
+        <v>OCL Evolution</v>
+      </c>
+      <c r="J38">
+        <f>D25</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" t="str">
+        <f>B28</f>
+        <v>Other</v>
+      </c>
+      <c r="J39">
+        <f>D28</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
